--- a/results/I3_N5_M2_T45_C100_DepCentral_s0_res_fix.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s0_res_fix.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2833.327690594528</v>
+        <v>833.1928852362221</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01399993896484375</v>
+        <v>0.004999876022338867</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.63566374384713</v>
+        <v>21.63566374384712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.14211850121831</v>
+        <v>8.279704360440018</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.704145351896762</v>
+        <v>3.836925852814985</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2375.180000000003</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>445.95</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -587,7 +587,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -595,10 +595,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>39.74510203379412</v>
+        <v>5.254897966205881</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35.85875413377281</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12.87750147232089</v>
+        <v>32.94108823397055</v>
       </c>
     </row>
     <row r="6">
@@ -931,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>39.74510203379412</v>
       </c>
     </row>
     <row r="7">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>9.93641323835034</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43.31386932797288</v>
+        <v>42.16605226046133</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>30</v>
+        <v>35.06358676164966</v>
       </c>
     </row>
   </sheetData>
@@ -969,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,10 +1001,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1015,10 +1015,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1029,10 +1029,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1043,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1057,10 +1057,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1071,10 +1071,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1085,10 +1085,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1099,10 +1099,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1113,10 +1113,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1127,71 +1127,15 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>4</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>3</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4</v>
-      </c>
-      <c r="B14" t="n">
-        <v>2</v>
-      </c>
-      <c r="C14" t="n">
-        <v>4</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" t="n">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5</v>
-      </c>
-      <c r="D15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1294,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>288.0900000000015</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
@@ -1305,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>295.1150000000015</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
@@ -1316,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>299.2</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1327,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>305.8650000000014</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11">
@@ -1338,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>298.9700000000014</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12">
@@ -1349,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>219.9150000000008</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
@@ -1360,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>218.9850000000008</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -1371,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>223.3600000000008</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
@@ -1382,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>228.9550000000008</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16">
@@ -1393,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>223.1200000000008</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17">
@@ -1404,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>133.8599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18">
@@ -1415,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>138.7699999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -1426,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>146.7699999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -1437,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>140.9699999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21">
@@ -1448,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>139.9799999999991</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22">
@@ -1459,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>108.515</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23">
@@ -1470,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>96.92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24">
@@ -1481,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>106.645</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25">
@@ -1492,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>103.745</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26">
@@ -1503,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>100.49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27">
@@ -1514,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28">
@@ -1525,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29">
@@ -1536,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30">
@@ -1547,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31">
@@ -1558,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32">
@@ -1569,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>288.0900000000015</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33">
@@ -1580,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>295.1150000000015</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34">
@@ -1591,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>299.2</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35">
@@ -1602,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>305.8650000000014</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36">
@@ -1613,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>298.9700000000014</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37">
@@ -1624,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>133.8599999999991</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -1635,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>138.7699999999991</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39">
@@ -1646,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>146.7699999999991</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -1657,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>140.9699999999991</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -1668,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>139.9799999999991</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1715,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>188.0900000000015</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -1726,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>195.1150000000015</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4">
@@ -1737,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>199.2</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1748,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>205.8650000000014</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -1759,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>198.9700000000014</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
@@ -1770,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.8599999999991</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1781,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>38.76999999999913</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1792,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>46.76999999999913</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -1803,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>40.96999999999912</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -1814,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>39.97999999999911</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1861,7 +1805,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
@@ -1872,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -1883,7 +1827,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -1894,7 +1838,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -1905,7 +1849,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1916,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1927,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1938,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1949,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1960,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1971,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>27.065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1982,7 +1926,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>15.105</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1993,7 +1937,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>18.92</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2004,7 +1948,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>15.185</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2015,7 +1959,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>27.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2081,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2092,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2103,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2114,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2125,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2139,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2166,7 +2110,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2177,7 +2121,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2188,7 +2132,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2199,7 +2143,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2210,7 +2154,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -2221,10 +2165,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2232,10 +2176,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2243,10 +2187,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2254,10 +2198,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2265,10 +2209,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2276,10 +2220,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2287,10 +2231,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2298,78 +2242,12 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>4</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>4</v>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>4</v>
-      </c>
-      <c r="B19" t="n">
-        <v>4</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>4</v>
-      </c>
-      <c r="B20" t="n">
-        <v>5</v>
-      </c>
-      <c r="C20" t="n">
         <v>1</v>
       </c>
     </row>
